--- a/KG/sample_data/instance_level_data_v3.xlsx
+++ b/KG/sample_data/instance_level_data_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iris\practice\GenAI\code\Batch_KG\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF3D34-093B-4440-8D65-9CBA672AE534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF9EA2C-748F-4066-AE9D-A5174300072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobGroupExecutions" sheetId="6" r:id="rId1"/>
@@ -954,16 +954,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -980,7 +980,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -997,7 +997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -1143,28 +1143,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1228,15 +1228,15 @@
       </c>
       <c r="G2" s="7">
         <f t="shared" ref="G2:G7" ca="1" si="0" xml:space="preserve"> F2 + RANDBETWEEN(5, 120) / 86400</f>
-        <v>0.26518518518518519</v>
+        <v>0.26495370370370369</v>
       </c>
       <c r="H2" s="8">
         <f ca="1">(G2 - F2) * 86400000</f>
-        <v>111999.99999999993</v>
+        <v>91999.999999998399</v>
       </c>
       <c r="I2" s="8">
         <f ca="1">RANDBETWEEN(80000, 120000)</f>
-        <v>94110</v>
+        <v>89906</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>5</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1266,23 +1266,23 @@
       </c>
       <c r="E3" s="7">
         <f ca="1">F3</f>
-        <v>0.26518518518518519</v>
+        <v>0.26495370370370369</v>
       </c>
       <c r="F3" s="7">
         <f ca="1">G2</f>
-        <v>0.26518518518518519</v>
+        <v>0.26495370370370369</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26538194444444446</v>
+        <v>0.26621527777777776</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H7" ca="1" si="1">(G3 - F3) * 86400000</f>
-        <v>17000.000000001059</v>
+        <v>108999.99999999945</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I7" ca="1" si="2">RANDBETWEEN(80000, 120000)</f>
-        <v>81906</v>
+        <v>81739</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>5</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1312,23 +1312,23 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">F4</f>
-        <v>0.26518518518518519</v>
+        <v>0.26495370370370369</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">G2</f>
-        <v>0.26518518518518519</v>
+        <v>0.26495370370370369</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26636574074074076</v>
+        <v>0.26582175925925927</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>102000.00000000156</v>
+        <v>75000.000000002125</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>110253</v>
+        <v>93340</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>5</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1358,23 +1358,23 @@
       </c>
       <c r="E5" s="7">
         <f ca="1">F5</f>
-        <v>0.26538194444444446</v>
+        <v>0.26621527777777776</v>
       </c>
       <c r="F5" s="7">
         <f ca="1">G3</f>
-        <v>0.26538194444444446</v>
+        <v>0.26621527777777776</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26636574074074076</v>
+        <v>0.26689814814814811</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>85000.000000000495</v>
+        <v>58999.999999998028</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>97284</v>
+        <v>95855</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>5</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1404,23 +1404,23 @@
       </c>
       <c r="E6" s="7">
         <f ca="1">F6</f>
-        <v>0.26636574074074076</v>
+        <v>0.26582175925925927</v>
       </c>
       <c r="F6" s="7">
         <f ca="1">G4</f>
-        <v>0.26636574074074076</v>
+        <v>0.26582175925925927</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26696759259259262</v>
+        <v>0.26635416666666667</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52000.000000000138</v>
+        <v>45999.9999999992</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>116562</v>
+        <v>82804</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>5</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1450,23 +1450,23 @@
       </c>
       <c r="E7" s="7">
         <f ca="1">F7</f>
-        <v>0.26696759259259262</v>
+        <v>0.26689814814814811</v>
       </c>
       <c r="F7" s="7">
         <f ca="1">IF(G5 &gt; G6, G5, G6)</f>
-        <v>0.26696759259259262</v>
+        <v>0.26689814814814811</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26774305555555555</v>
+        <v>0.26706018518518515</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>66999.999999997686</v>
+        <v>14000.000000000589</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>119791</v>
+        <v>102375</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>5</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1504,15 +1504,15 @@
       </c>
       <c r="G8" s="7">
         <f ca="1" xml:space="preserve"> F8 + RANDBETWEEN(5, 120) / 86400</f>
-        <v>0.25013888888888891</v>
+        <v>0.25056712962962963</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">(G8 - F8) * 86400000</f>
-        <v>12000.000000001875</v>
+        <v>48999.999999999665</v>
       </c>
       <c r="I8" s="8">
         <f ca="1">RANDBETWEEN(20000, 40000)</f>
-        <v>38198</v>
+        <v>28069</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>5</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1542,23 +1542,23 @@
       </c>
       <c r="E9" s="7">
         <f ca="1">F9</f>
-        <v>0.25013888888888891</v>
+        <v>0.25056712962962963</v>
       </c>
       <c r="F9" s="7">
         <f ca="1">G8</f>
-        <v>0.25013888888888891</v>
+        <v>0.25056712962962963</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:G19" ca="1" si="3" xml:space="preserve"> F9 + RANDBETWEEN(5, 120) / 86400</f>
-        <v>0.2515162037037037</v>
+        <v>0.25072916666666667</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" ref="H9:H13" ca="1" si="4">(G9 - F9) * 86400000</f>
-        <v>118999.99999999782</v>
+        <v>14000.000000000589</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" ref="I9:I13" ca="1" si="5">RANDBETWEEN(20000, 40000)</f>
-        <v>31941</v>
+        <v>26429</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1588,23 +1588,23 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" ref="E10:E13" ca="1" si="6">F10</f>
-        <v>0.25013888888888891</v>
+        <v>0.25056712962962963</v>
       </c>
       <c r="F10" s="7">
         <f ca="1">G8</f>
-        <v>0.25013888888888891</v>
+        <v>0.25056712962962963</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25057870370370372</v>
+        <v>0.25186342592592592</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>37999.999999999549</v>
+        <v>111999.99999999993</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>36428</v>
+        <v>22846</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1634,23 +1634,23 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2515162037037037</v>
+        <v>0.25072916666666667</v>
       </c>
       <c r="F11" s="7">
         <f ca="1">G9</f>
-        <v>0.2515162037037037</v>
+        <v>0.25072916666666667</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25195601851851851</v>
+        <v>0.25091435185185185</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>37999.999999999549</v>
+        <v>15999.999999999303</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>33032</v>
+        <v>37015</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>5</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1680,23 @@
       </c>
       <c r="E12" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25057870370370372</v>
+        <v>0.25186342592592592</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">G10</f>
-        <v>0.25057870370370372</v>
+        <v>0.25186342592592592</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25113425925925925</v>
+        <v>0.25315972222222222</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>47999.999999997912</v>
+        <v>111999.99999999993</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>37346</v>
+        <v>27002</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1726,23 +1726,23 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25195601851851851</v>
+        <v>0.25315972222222222</v>
       </c>
       <c r="F13" s="7">
         <f ca="1">IF(G11 &gt; G12, G11, G12)</f>
-        <v>0.25195601851851851</v>
+        <v>0.25315972222222222</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25306712962962963</v>
+        <v>0.25370370370370371</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>96000.000000000611</v>
+        <v>47000.000000000953</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>22948</v>
+        <v>24396</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>5</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1780,15 +1780,15 @@
       </c>
       <c r="G14" s="7">
         <f ca="1" xml:space="preserve"> F14 + RANDBETWEEN(5, 120) / 86400</f>
-        <v>0.25096064814814817</v>
+        <v>0.25136574074074075</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">(G14 - F14) * 86400000</f>
-        <v>83000.00000000179</v>
+        <v>118000.00000000086</v>
       </c>
       <c r="I14" s="8">
         <f ca="1">RANDBETWEEN(20000, 40000)</f>
-        <v>21668</v>
+        <v>31464</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1818,23 +1818,23 @@
       </c>
       <c r="E15" s="7">
         <f ca="1">F15</f>
-        <v>0.25096064814814817</v>
+        <v>0.25136574074074075</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">G14</f>
-        <v>0.25096064814814817</v>
+        <v>0.25136574074074075</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25166666666666671</v>
+        <v>0.25149305555555557</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" ref="H15:H19" ca="1" si="7">(G15 - F15) * 86400000</f>
-        <v>61000.000000001543</v>
+        <v>11000.00000000012</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" ref="I15:I19" ca="1" si="8">RANDBETWEEN(20000, 40000)</f>
-        <v>30341</v>
+        <v>25244</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1864,23 +1864,23 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" ref="E16:E19" ca="1" si="9">F16</f>
-        <v>0.25096064814814817</v>
+        <v>0.25136574074074075</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">G14</f>
-        <v>0.25096064814814817</v>
+        <v>0.25136574074074075</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25232638888888892</v>
+        <v>0.25184027777777779</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>118000.00000000086</v>
+        <v>41000.000000000015</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>38940</v>
+        <v>21908</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>5</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1910,23 +1910,23 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25166666666666671</v>
+        <v>0.25149305555555557</v>
       </c>
       <c r="F17" s="7">
         <f ca="1">G15</f>
-        <v>0.25166666666666671</v>
+        <v>0.25149305555555557</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25206018518518525</v>
+        <v>0.2519791666666667</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>34000.000000002117</v>
+        <v>42000.000000001768</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>22810</v>
+        <v>30353</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25232638888888892</v>
+        <v>0.25184027777777779</v>
       </c>
       <c r="F18" s="7">
         <f ca="1">G16</f>
-        <v>0.25232638888888892</v>
+        <v>0.25184027777777779</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25331018518518522</v>
+        <v>0.25270833333333337</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>85000.000000000495</v>
+        <v>75000.000000002125</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>26664</v>
+        <v>21463</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -2002,23 +2002,23 @@
       </c>
       <c r="E19" s="7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25331018518518522</v>
+        <v>0.25270833333333337</v>
       </c>
       <c r="F19" s="7">
         <f ca="1">IF(G17 &gt; G18, G17, G18)</f>
-        <v>0.25331018518518522</v>
+        <v>0.25270833333333337</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2542476851851852</v>
+        <v>0.25408564814814816</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>80999.999999998268</v>
+        <v>118999.99999999782</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>22888</v>
+        <v>27814</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>5</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2056,15 +2056,15 @@
       </c>
       <c r="G20" s="7">
         <f ca="1" xml:space="preserve"> F20 + RANDBETWEEN(280, 400) / 86400</f>
-        <v>0.58717592592592593</v>
+        <v>0.58674768518518527</v>
       </c>
       <c r="H20" s="8">
         <f ca="1">(G20 - F20) * 86400000</f>
-        <v>331999.99999999756</v>
+        <v>295000.00000000454</v>
       </c>
       <c r="I20" s="8">
         <f ca="1">RANDBETWEEN(90000, 120000)</f>
-        <v>103366</v>
+        <v>117884</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2094,23 +2094,23 @@
       </c>
       <c r="E21" s="7">
         <f ca="1">F21</f>
-        <v>0.58717592592592593</v>
+        <v>0.58674768518518527</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">G20</f>
-        <v>0.58717592592592593</v>
+        <v>0.58674768518518527</v>
       </c>
       <c r="G21" s="7">
         <f ca="1" xml:space="preserve"> F21 + RANDBETWEEN(280, 390) / 86400</f>
-        <v>0.59149305555555554</v>
+        <v>0.59094907407407415</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:H28" ca="1" si="10">(G21 - F21) * 86400000</f>
-        <v>372999.99999999756</v>
+        <v>362999.99999999919</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" ref="I21:I28" ca="1" si="11">RANDBETWEEN(90000, 120000)</f>
-        <v>112636</v>
+        <v>96350</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2140,23 +2140,23 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" ref="E22:E28" ca="1" si="12">F22</f>
-        <v>0.58717592592592593</v>
+        <v>0.58674768518518527</v>
       </c>
       <c r="F22" s="7">
         <f ca="1">G20</f>
-        <v>0.58717592592592593</v>
+        <v>0.58674768518518527</v>
       </c>
       <c r="G22" s="7">
         <f ca="1" xml:space="preserve"> F22 + RANDBETWEEN(350, 450) / 86400</f>
-        <v>0.59151620370370372</v>
+        <v>0.59158564814814829</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>375000.00000000105</v>
+        <v>418000.0000000046</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>115862</v>
+        <v>115907</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
@@ -2186,23 +2186,23 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59149305555555554</v>
+        <v>0.59094907407407415</v>
       </c>
       <c r="F23" s="7">
         <f ca="1">G21</f>
-        <v>0.59149305555555554</v>
+        <v>0.59094907407407415</v>
       </c>
       <c r="G23" s="7">
         <f ca="1" xml:space="preserve"> F23 + RANDBETWEEN(410, 710) / 86400</f>
-        <v>0.59755787037037034</v>
+        <v>0.59577546296296302</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>523999.99999999878</v>
+        <v>416999.99999999802</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>103436</v>
+        <v>95009</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -2232,23 +2232,23 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59151620370370372</v>
+        <v>0.59158564814814829</v>
       </c>
       <c r="F24" s="7">
         <f ca="1">G22</f>
-        <v>0.59151620370370372</v>
+        <v>0.59158564814814829</v>
       </c>
       <c r="G24" s="7">
         <f ca="1" xml:space="preserve"> F24 + RANDBETWEEN(350, 650) / 86400</f>
-        <v>0.59777777777777785</v>
+        <v>0.59766203703703713</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>541000.00000000466</v>
+        <v>524999.99999999569</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>118767</v>
+        <v>115421</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
@@ -2278,15 +2278,15 @@
       </c>
       <c r="E25" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59755787037037034</v>
+        <v>0.59577546296296302</v>
       </c>
       <c r="F25" s="7">
         <f ca="1">G23</f>
-        <v>0.59755787037037034</v>
+        <v>0.59577546296296302</v>
       </c>
       <c r="G25" s="7">
         <f ca="1" xml:space="preserve"> F25 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60115740740740742</v>
+        <v>0.5993750000000001</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" ca="1" si="10"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="I25" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>101380</v>
+        <v>91940</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>5</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -2324,23 +2324,23 @@
       </c>
       <c r="E26" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59777777777777785</v>
+        <v>0.59766203703703713</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">G24</f>
-        <v>0.59777777777777785</v>
+        <v>0.59766203703703713</v>
       </c>
       <c r="G26" s="7">
         <f ca="1" xml:space="preserve"> F26 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60138888888888897</v>
+        <v>0.6014236111111112</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>312000.00000000081</v>
+        <v>324999.99999999965</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>105169</v>
+        <v>100051</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2370,23 +2370,23 @@
       </c>
       <c r="E27" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.60138888888888897</v>
+        <v>0.6014236111111112</v>
       </c>
       <c r="F27" s="7">
         <f ca="1">G26</f>
-        <v>0.60138888888888897</v>
+        <v>0.6014236111111112</v>
       </c>
       <c r="G27" s="7">
         <f ca="1" xml:space="preserve"> F27 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60498842592592605</v>
+        <v>0.60663194444444457</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>311000.00000000384</v>
+        <v>450000.0000000032</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>94838</v>
+        <v>99442</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2416,23 +2416,23 @@
       </c>
       <c r="E28" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.60498842592592605</v>
+        <v>0.60663194444444457</v>
       </c>
       <c r="F28" s="7">
         <f ca="1">IF(G25 &gt; G27, G25, G27)</f>
-        <v>0.60498842592592605</v>
+        <v>0.60663194444444457</v>
       </c>
       <c r="G28" s="7">
         <f ca="1" xml:space="preserve"> F28 + RANDBETWEEN(150, 350) / 86400</f>
-        <v>0.608877314814815</v>
+        <v>0.60993055555555564</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>336000.00000000454</v>
+        <v>284999.99999999657</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>105329</v>
+        <v>97176</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>5</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -2470,15 +2470,15 @@
       </c>
       <c r="G29" s="7">
         <f ca="1" xml:space="preserve"> F29 + RANDBETWEEN(280, 400) / 86400</f>
-        <v>0.58684027777777781</v>
+        <v>0.58664351851851859</v>
       </c>
       <c r="H29" s="8">
         <f ca="1">(G29 - F29) * 86400000</f>
-        <v>302999.99999999942</v>
+        <v>286000.00000000314</v>
       </c>
       <c r="I29" s="8">
         <f ca="1">RANDBETWEEN(20000, 30000)</f>
-        <v>26043</v>
+        <v>23886</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
@@ -2508,23 +2508,23 @@
       </c>
       <c r="E30" s="7">
         <f ca="1">F30</f>
-        <v>0.58684027777777781</v>
+        <v>0.58664351851851859</v>
       </c>
       <c r="F30" s="7">
         <f ca="1">G29</f>
-        <v>0.58684027777777781</v>
+        <v>0.58664351851851859</v>
       </c>
       <c r="G30" s="7">
         <f ca="1" xml:space="preserve"> F30 + RANDBETWEEN(280, 390) / 86400</f>
-        <v>0.59099537037037042</v>
+        <v>0.59074074074074079</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" ref="H30:H37" ca="1" si="13">(G30 - F30) * 86400000</f>
-        <v>359000.00000000175</v>
+        <v>353999.99999999779</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ref="I30:I37" ca="1" si="14">RANDBETWEEN(20000, 30000)</f>
-        <v>23254</v>
+        <v>23913</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>5</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -2554,23 +2554,23 @@
       </c>
       <c r="E31" s="7">
         <f t="shared" ref="E31:E37" ca="1" si="15">F31</f>
-        <v>0.58684027777777781</v>
+        <v>0.58664351851851859</v>
       </c>
       <c r="F31" s="7">
         <f ca="1">G29</f>
-        <v>0.58684027777777781</v>
+        <v>0.58664351851851859</v>
       </c>
       <c r="G31" s="7">
         <f ca="1" xml:space="preserve"> F31 + RANDBETWEEN(350, 450) / 86400</f>
-        <v>0.5916435185185186</v>
+        <v>0.59113425925925933</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>415000.00000000413</v>
+        <v>387999.99999999988</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>27297</v>
+        <v>22230</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>5</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
@@ -2600,23 +2600,23 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.59099537037037042</v>
+        <v>0.59074074074074079</v>
       </c>
       <c r="F32" s="7">
         <f ca="1">G30</f>
-        <v>0.59099537037037042</v>
+        <v>0.59074074074074079</v>
       </c>
       <c r="G32" s="7">
         <f ca="1" xml:space="preserve"> F32 + RANDBETWEEN(410, 710) / 86400</f>
-        <v>0.59732638888888889</v>
+        <v>0.59703703703703703</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>546999.99999999593</v>
+        <v>543999.99999999546</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>20237</v>
+        <v>22839</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -2646,23 +2646,23 @@
       </c>
       <c r="E33" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5916435185185186</v>
+        <v>0.59113425925925933</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">G31</f>
-        <v>0.5916435185185186</v>
+        <v>0.59113425925925933</v>
       </c>
       <c r="G33" s="7">
         <f ca="1" xml:space="preserve"> F33 + RANDBETWEEN(350, 650) / 86400</f>
-        <v>0.59722222222222232</v>
+        <v>0.59733796296296304</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>482000.0000000018</v>
+        <v>536000.0000000007</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>28042</v>
+        <v>28149</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -2692,23 +2692,23 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.59732638888888889</v>
+        <v>0.59703703703703703</v>
       </c>
       <c r="F34" s="7">
         <f ca="1">G32</f>
-        <v>0.59732638888888889</v>
+        <v>0.59703703703703703</v>
       </c>
       <c r="G34" s="7">
         <f ca="1" xml:space="preserve"> F34 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60233796296296294</v>
+        <v>0.60206018518518523</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>432999.99999999732</v>
+        <v>434000.0000000039</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>24934</v>
+        <v>27405</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>5</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -2738,23 +2738,23 @@
       </c>
       <c r="E35" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.59722222222222232</v>
+        <v>0.59733796296296304</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">G33</f>
-        <v>0.59722222222222232</v>
+        <v>0.59733796296296304</v>
       </c>
       <c r="G35" s="7">
         <f ca="1" xml:space="preserve"> F35 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60216435185185191</v>
+        <v>0.6012037037037038</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>426999.99999999639</v>
+        <v>334000.00000000105</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>27457</v>
+        <v>21010</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -2784,23 +2784,23 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.60216435185185191</v>
+        <v>0.6012037037037038</v>
       </c>
       <c r="F36" s="7">
         <f ca="1">G35</f>
-        <v>0.60216435185185191</v>
+        <v>0.6012037037037038</v>
       </c>
       <c r="G36" s="7">
         <f ca="1" xml:space="preserve"> F36 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60636574074074079</v>
+        <v>0.60526620370370376</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>362999.99999999919</v>
+        <v>350999.99999999732</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>28491</v>
+        <v>21184</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>5</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -2830,23 +2830,23 @@
       </c>
       <c r="E37" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.60636574074074079</v>
+        <v>0.60526620370370376</v>
       </c>
       <c r="F37" s="7">
         <f ca="1">IF(G34 &gt; G36, G34, G36)</f>
-        <v>0.60636574074074079</v>
+        <v>0.60526620370370376</v>
       </c>
       <c r="G37" s="7">
         <f ca="1" xml:space="preserve"> F37 + RANDBETWEEN(150, 350) / 86400</f>
-        <v>0.6082523148148149</v>
+        <v>0.60929398148148151</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>163000.00000000309</v>
+        <v>347999.99999999686</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>22159</v>
+        <v>25302</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>5</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -2884,15 +2884,15 @@
       </c>
       <c r="G38" s="7">
         <f ca="1" xml:space="preserve"> F38 + RANDBETWEEN(280, 400) / 86400</f>
-        <v>0.58791666666666675</v>
+        <v>0.58744212962962972</v>
       </c>
       <c r="H38" s="8">
         <f ca="1">(G38 - F38) * 86400000</f>
-        <v>396000.00000000437</v>
+        <v>355000.00000000431</v>
       </c>
       <c r="I38" s="8">
         <f ca="1">RANDBETWEEN(30000, 40000)</f>
-        <v>30847</v>
+        <v>36517</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>5</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -2922,23 +2922,23 @@
       </c>
       <c r="E39" s="7">
         <f ca="1">F39</f>
-        <v>0.58791666666666675</v>
+        <v>0.58744212962962972</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">G38</f>
-        <v>0.58791666666666675</v>
+        <v>0.58744212962962972</v>
       </c>
       <c r="G39" s="7">
         <f ca="1" xml:space="preserve"> F39 + RANDBETWEEN(280, 390) / 86400</f>
-        <v>0.59203703703703714</v>
+        <v>0.59084490740740747</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:H55" ca="1" si="16">(G39 - F39) * 86400000</f>
-        <v>356000.00000000128</v>
+        <v>293999.99999999802</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" ref="I39:I46" ca="1" si="17">RANDBETWEEN(30000, 40000)</f>
-        <v>37656</v>
+        <v>34313</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>5</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
@@ -2968,15 +2968,15 @@
       </c>
       <c r="E40" s="7">
         <f t="shared" ref="E40:E46" ca="1" si="18">F40</f>
-        <v>0.58791666666666675</v>
+        <v>0.58744212962962972</v>
       </c>
       <c r="F40" s="7">
         <f ca="1">G38</f>
-        <v>0.58791666666666675</v>
+        <v>0.58744212962962972</v>
       </c>
       <c r="G40" s="7">
         <f ca="1" xml:space="preserve"> F40 + RANDBETWEEN(350, 450) / 86400</f>
-        <v>0.59296296296296302</v>
+        <v>0.59248842592592599</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" ca="1" si="16"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>34899</v>
+        <v>36661</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>5</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -3014,23 +3014,23 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" ca="1" si="18"/>
-        <v>0.59203703703703714</v>
+        <v>0.59084490740740747</v>
       </c>
       <c r="F41" s="7">
         <f ca="1">G39</f>
-        <v>0.59203703703703714</v>
+        <v>0.59084490740740747</v>
       </c>
       <c r="G41" s="7">
         <f ca="1" xml:space="preserve"> F41 + RANDBETWEEN(410, 710) / 86400</f>
-        <v>0.59837962962962976</v>
+        <v>0.59892361111111114</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>548000.00000000256</v>
+        <v>697999.99999999721</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>31943</v>
+        <v>38562</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -3060,23 +3060,23 @@
       </c>
       <c r="E42" s="7">
         <f t="shared" ca="1" si="18"/>
-        <v>0.59296296296296302</v>
+        <v>0.59248842592592599</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">G40</f>
-        <v>0.59296296296296302</v>
+        <v>0.59248842592592599</v>
       </c>
       <c r="G42" s="7">
         <f ca="1" xml:space="preserve"> F42 + RANDBETWEEN(350, 650) / 86400</f>
-        <v>0.59835648148148157</v>
+        <v>0.59974537037037046</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>466000.0000000025</v>
+        <v>627000.0000000021</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>34710</v>
+        <v>31372</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
@@ -3106,23 +3106,23 @@
       </c>
       <c r="E43" s="7">
         <f t="shared" ca="1" si="18"/>
-        <v>0.59837962962962976</v>
+        <v>0.59892361111111114</v>
       </c>
       <c r="F43" s="7">
         <f ca="1">G41</f>
-        <v>0.59837962962962976</v>
+        <v>0.59892361111111114</v>
       </c>
       <c r="G43" s="7">
         <f ca="1" xml:space="preserve"> F43 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60185185185185197</v>
+        <v>0.60321759259259267</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>299999.99999999895</v>
+        <v>371000.00000000361</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>35528</v>
+        <v>30399</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>78</v>
       </c>
@@ -3152,23 +3152,23 @@
       </c>
       <c r="E44" s="7">
         <f t="shared" ca="1" si="18"/>
-        <v>0.59835648148148157</v>
+        <v>0.59974537037037046</v>
       </c>
       <c r="F44" s="7">
         <f ca="1">G42</f>
-        <v>0.59835648148148157</v>
+        <v>0.59974537037037046</v>
       </c>
       <c r="G44" s="7">
         <f ca="1" xml:space="preserve"> F44 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60233796296296305</v>
+        <v>0.60472222222222227</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>343999.99999999942</v>
+        <v>429999.99999999686</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>38994</v>
+        <v>38868</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
@@ -3198,23 +3198,23 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" ca="1" si="18"/>
-        <v>0.60233796296296305</v>
+        <v>0.60472222222222227</v>
       </c>
       <c r="F45" s="7">
         <f ca="1">G44</f>
-        <v>0.60233796296296305</v>
+        <v>0.60472222222222227</v>
       </c>
       <c r="G45" s="7">
         <f ca="1" xml:space="preserve"> F45 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.60629629629629633</v>
+        <v>0.60892361111111115</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>341999.99999999593</v>
+        <v>362999.99999999919</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>38178</v>
+        <v>37608</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
@@ -3244,23 +3244,23 @@
       </c>
       <c r="E46" s="7">
         <f t="shared" ca="1" si="18"/>
-        <v>0.60629629629629633</v>
+        <v>0.60892361111111115</v>
       </c>
       <c r="F46" s="7">
         <f ca="1">IF(G43 &gt; G45, G43, G45)</f>
-        <v>0.60629629629629633</v>
+        <v>0.60892361111111115</v>
       </c>
       <c r="G46" s="7">
         <f ca="1" xml:space="preserve"> F46 + RANDBETWEEN(150, 350) / 86400</f>
-        <v>0.61023148148148154</v>
+        <v>0.61168981481481488</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>340000.00000000198</v>
+        <v>239000.00000000218</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>35295</v>
+        <v>36870</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -3298,15 +3298,15 @@
       </c>
       <c r="G47" s="7">
         <f ca="1" xml:space="preserve"> F47 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.87836805555555553</v>
+        <v>0.87951388888888893</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>290999.99999999756</v>
+        <v>390000.00000000343</v>
       </c>
       <c r="I47" s="8">
         <f ca="1">RANDBETWEEN(100000, 120000)</f>
-        <v>119367</v>
+        <v>117277</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3336,23 +3336,23 @@
       </c>
       <c r="E48" s="7">
         <f ca="1">F48</f>
-        <v>0.87836805555555553</v>
+        <v>0.87951388888888893</v>
       </c>
       <c r="F48" s="7">
         <f ca="1">G47</f>
-        <v>0.87836805555555553</v>
+        <v>0.87951388888888893</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" ref="G48:G73" ca="1" si="19" xml:space="preserve"> F48 + RANDBETWEEN(150, 350) / 86400</f>
-        <v>0.88019675925925922</v>
+        <v>0.8819097222222223</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>157999.99999999913</v>
+        <v>207000.00000000358</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" ref="I48:I55" ca="1" si="20">RANDBETWEEN(100000, 120000)</f>
-        <v>116038</v>
+        <v>119878</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>92</v>
       </c>
@@ -3382,23 +3382,23 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" ref="E49:E55" ca="1" si="21">F49</f>
-        <v>0.87836805555555553</v>
+        <v>0.87951388888888893</v>
       </c>
       <c r="F49" s="7">
         <f ca="1">G47</f>
-        <v>0.87836805555555553</v>
+        <v>0.87951388888888893</v>
       </c>
       <c r="G49" s="7">
         <f ca="1" xml:space="preserve"> F49 + RANDBETWEEN(300, 500) / 86400</f>
-        <v>0.8839351851851851</v>
+        <v>0.88460648148148158</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>480999.99999999523</v>
+        <v>440000.00000000483</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>117315</v>
+        <v>104400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>93</v>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E50" s="7">
         <f ca="1">IF(G48 &gt; G49, G48, G49)</f>
-        <v>0.8839351851851851</v>
+        <v>0.88460648148148158</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">IF((IF(G48 &gt; G49, G48, G49)) &gt; ResourceAvailabilityEvents!D17, (IF(G48 &gt; G49, G48, G49)), ResourceAvailabilityEvents!D17)</f>
@@ -3436,15 +3436,15 @@
       </c>
       <c r="G50" s="7">
         <f ca="1" xml:space="preserve"> F50 + RANDBETWEEN(450, 750) / 86400</f>
-        <v>0.9074768518518519</v>
+        <v>0.90714120370370377</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>706000.00000000163</v>
+        <v>677000.00000000349</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>117076</v>
+        <v>115953</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>5</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>94</v>
       </c>
@@ -3474,23 +3474,23 @@
       </c>
       <c r="E51" s="7">
         <f t="shared" ca="1" si="21"/>
-        <v>0.9074768518518519</v>
+        <v>0.90714120370370377</v>
       </c>
       <c r="F51" s="7">
         <f ca="1">G50</f>
-        <v>0.9074768518518519</v>
+        <v>0.90714120370370377</v>
       </c>
       <c r="G51" s="7">
         <f ca="1" xml:space="preserve"> F51 + RANDBETWEEN(450, 750) / 86400</f>
-        <v>0.91413194444444446</v>
+        <v>0.91347222222222224</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>574999.99999999721</v>
+        <v>546999.99999999593</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>116752</v>
+        <v>110952</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>5</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>95</v>
       </c>
@@ -3520,23 +3520,23 @@
       </c>
       <c r="E52" s="7">
         <f t="shared" ca="1" si="21"/>
-        <v>0.91413194444444446</v>
+        <v>0.91347222222222224</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" ref="F52:F55" ca="1" si="22">G51</f>
-        <v>0.91413194444444446</v>
+        <v>0.91347222222222224</v>
       </c>
       <c r="G52" s="7">
         <f ca="1" xml:space="preserve"> F52 + RANDBETWEEN(200, 400) / 86400</f>
-        <v>0.91775462962962961</v>
+        <v>0.91758101851851859</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>312999.99999999779</v>
+        <v>355000.00000000431</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>110218</v>
+        <v>114727</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -3566,23 +3566,23 @@
       </c>
       <c r="E53" s="7">
         <f t="shared" ca="1" si="21"/>
-        <v>0.91775462962962961</v>
+        <v>0.91758101851851859</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.91775462962962961</v>
+        <v>0.91758101851851859</v>
       </c>
       <c r="G53" s="7">
         <f ca="1" xml:space="preserve"> F53 + RANDBETWEEN(200, 400) / 86400</f>
-        <v>0.92145833333333327</v>
+        <v>0.92043981481481485</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>319999.99999999569</v>
+        <v>246999.99999999703</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>106417</v>
+        <v>106349</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>5</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>97</v>
       </c>
@@ -3612,23 +3612,23 @@
       </c>
       <c r="E54" s="7">
         <f t="shared" ca="1" si="21"/>
-        <v>0.92145833333333327</v>
+        <v>0.92043981481481485</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.92145833333333327</v>
+        <v>0.92043981481481485</v>
       </c>
       <c r="G54" s="7">
         <f ca="1" xml:space="preserve"> F54 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.92538194444444433</v>
+        <v>0.92547453703703708</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>338999.99999999546</v>
+        <v>435000.00000000087</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>105571</v>
+        <v>113776</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>98</v>
       </c>
@@ -3658,23 +3658,23 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" ca="1" si="21"/>
-        <v>0.92538194444444433</v>
+        <v>0.92547453703703708</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.92538194444444433</v>
+        <v>0.92547453703703708</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" ca="1" si="19"/>
-        <v>0.92894675925925918</v>
+        <v>0.92796296296296299</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>308000.00000000338</v>
+        <v>214999.99999999843</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>111289</v>
+        <v>112572</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>5</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
@@ -3712,15 +3712,15 @@
       </c>
       <c r="G56" s="7">
         <f ca="1" xml:space="preserve"> F56 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.87881944444444449</v>
+        <v>0.87868055555555558</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" ref="H56:H73" ca="1" si="23">(G56 - F56) * 86400000</f>
-        <v>330000.00000000361</v>
+        <v>318000.00000000175</v>
       </c>
       <c r="I56" s="8">
         <f ca="1">RANDBETWEEN(20000, 30000)</f>
-        <v>20470</v>
+        <v>21896</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>5</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>100</v>
       </c>
@@ -3750,23 +3750,23 @@
       </c>
       <c r="E57" s="7">
         <f ca="1">F57</f>
-        <v>0.87881944444444449</v>
+        <v>0.87868055555555558</v>
       </c>
       <c r="F57" s="7">
         <f ca="1">G56</f>
-        <v>0.87881944444444449</v>
+        <v>0.87868055555555558</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" ca="1" si="19"/>
-        <v>0.88155092592592599</v>
+        <v>0.88135416666666666</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>236000.00000000172</v>
+        <v>230999.99999999773</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" ref="I57:I64" ca="1" si="24">RANDBETWEEN(20000, 30000)</f>
-        <v>23984</v>
+        <v>29165</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>101</v>
       </c>
@@ -3796,23 +3796,23 @@
       </c>
       <c r="E58" s="7">
         <f t="shared" ref="E58:E64" ca="1" si="25">F58</f>
-        <v>0.87881944444444449</v>
+        <v>0.87868055555555558</v>
       </c>
       <c r="F58" s="7">
         <f ca="1">G56</f>
-        <v>0.87881944444444449</v>
+        <v>0.87868055555555558</v>
       </c>
       <c r="G58" s="7">
         <f ca="1" xml:space="preserve"> F58 + RANDBETWEEN(300, 500) / 86400</f>
-        <v>0.88429398148148153</v>
+        <v>0.8825115740740741</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>473000.00000000041</v>
+        <v>331000.00000000058</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>25789</v>
+        <v>29199</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>102</v>
       </c>
@@ -3842,23 +3842,23 @@
       </c>
       <c r="E59" s="7">
         <f ca="1">IF(G57 &gt; G58, G57, G58)</f>
-        <v>0.88429398148148153</v>
+        <v>0.8825115740740741</v>
       </c>
       <c r="F59" s="7">
         <f ca="1">IF((IF(G57 &gt; G58, G57, G58)) &gt; ResourceAvailabilityEvents!D18, (IF(G57 &gt; G58, G57, G58)), ResourceAvailabilityEvents!D18)</f>
-        <v>0.88429398148148153</v>
+        <v>0.8825115740740741</v>
       </c>
       <c r="G59" s="7">
         <f ca="1" xml:space="preserve"> F59 + RANDBETWEEN(450, 750) / 86400</f>
-        <v>0.89244212962962965</v>
+        <v>0.8892592592592593</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>703999.99999999814</v>
+        <v>583000.00000000163</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>28737</v>
+        <v>22231</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>103</v>
       </c>
@@ -3888,23 +3888,23 @@
       </c>
       <c r="E60" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.89244212962962965</v>
+        <v>0.8892592592592593</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">G59</f>
-        <v>0.89244212962962965</v>
+        <v>0.8892592592592593</v>
       </c>
       <c r="G60" s="7">
         <f ca="1" xml:space="preserve"> F60 + RANDBETWEEN(450, 750) / 86400</f>
-        <v>0.89765046296296302</v>
+        <v>0.89592592592592601</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>450000.0000000032</v>
+        <v>576000.00000000373</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>25591</v>
+        <v>20316</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>104</v>
       </c>
@@ -3934,23 +3934,23 @@
       </c>
       <c r="E61" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.89765046296296302</v>
+        <v>0.89592592592592601</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" ref="F61:F64" ca="1" si="26">G60</f>
-        <v>0.89765046296296302</v>
+        <v>0.89592592592592601</v>
       </c>
       <c r="G61" s="7">
         <f ca="1" xml:space="preserve"> F61 + RANDBETWEEN(200, 400) / 86400</f>
-        <v>0.9010300925925927</v>
+        <v>0.90016203703703712</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>292000.00000000407</v>
+        <v>365999.99999999965</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>21481</v>
+        <v>26256</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>5</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>105</v>
       </c>
@@ -3980,23 +3980,23 @@
       </c>
       <c r="E62" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.9010300925925927</v>
+        <v>0.90016203703703712</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.9010300925925927</v>
+        <v>0.90016203703703712</v>
       </c>
       <c r="G62" s="7">
         <f ca="1" xml:space="preserve"> F62 + RANDBETWEEN(200, 400) / 86400</f>
-        <v>0.90509259259259267</v>
+        <v>0.9025578703703705</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>350999.99999999732</v>
+        <v>207000.00000000358</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>22030</v>
+        <v>22500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
@@ -4026,23 +4026,23 @@
       </c>
       <c r="E63" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.90509259259259267</v>
+        <v>0.9025578703703705</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.90509259259259267</v>
+        <v>0.9025578703703705</v>
       </c>
       <c r="G63" s="7">
         <f ca="1" xml:space="preserve"> F63 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.91006944444444449</v>
+        <v>0.90567129629629639</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>429999.99999999686</v>
+        <v>268999.99999999726</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>24540</v>
+        <v>24331</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>5</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>107</v>
       </c>
@@ -4072,23 +4072,23 @@
       </c>
       <c r="E64" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.91006944444444449</v>
+        <v>0.90567129629629639</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.91006944444444449</v>
+        <v>0.90567129629629639</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" ca="1" si="19"/>
-        <v>0.91283564814814822</v>
+        <v>0.90745370370370382</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>239000.00000000218</v>
+        <v>154000.00000000169</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>23931</v>
+        <v>21347</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>5</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>108</v>
       </c>
@@ -4126,15 +4126,15 @@
       </c>
       <c r="G65" s="7">
         <f ca="1" xml:space="preserve"> F65 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.87906249999999997</v>
+        <v>0.87893518518518521</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>350999.99999999732</v>
+        <v>340000.00000000198</v>
       </c>
       <c r="I65" s="8">
         <f ca="1">RANDBETWEEN(25000, 35000)</f>
-        <v>31413</v>
+        <v>27233</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>5</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>109</v>
       </c>
@@ -4164,23 +4164,23 @@
       </c>
       <c r="E66" s="7">
         <f ca="1">F66</f>
-        <v>0.87906249999999997</v>
+        <v>0.87893518518518521</v>
       </c>
       <c r="F66" s="7">
         <f ca="1">G65</f>
-        <v>0.87906249999999997</v>
+        <v>0.87893518518518521</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" ca="1" si="19"/>
-        <v>0.8808449074074074</v>
+        <v>0.8807060185185186</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>154000.00000000169</v>
+        <v>153000.00000000474</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" ref="I66:I73" ca="1" si="27">RANDBETWEEN(25000, 35000)</f>
-        <v>30549</v>
+        <v>27107</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>110</v>
       </c>
@@ -4210,23 +4210,23 @@
       </c>
       <c r="E67" s="7">
         <f t="shared" ref="E67:E73" ca="1" si="28">F67</f>
-        <v>0.87906249999999997</v>
+        <v>0.87893518518518521</v>
       </c>
       <c r="F67" s="7">
         <f ca="1">G65</f>
-        <v>0.87906249999999997</v>
+        <v>0.87893518518518521</v>
       </c>
       <c r="G67" s="7">
         <f ca="1" xml:space="preserve"> F67 + RANDBETWEEN(300, 500) / 86400</f>
-        <v>0.88343749999999999</v>
+        <v>0.88392361111111117</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>378000.00000000151</v>
+        <v>431000.00000000343</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>33580</v>
+        <v>30592</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>5</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>111</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="E68" s="7">
         <f ca="1">IF(G66 &gt; G67, G66, G67)</f>
-        <v>0.88343749999999999</v>
+        <v>0.88392361111111117</v>
       </c>
       <c r="F68" s="7">
         <f ca="1">IF((IF(G66 &gt; G67, G66, G67)) &gt; ResourceAvailabilityEvents!D19, (IF(G66 &gt; G67, G66, G67)), ResourceAvailabilityEvents!D19)</f>
@@ -4264,15 +4264,15 @@
       </c>
       <c r="G68" s="7">
         <f ca="1" xml:space="preserve"> F68 + RANDBETWEEN(450, 750) / 86400</f>
-        <v>0.9269560185185185</v>
+        <v>0.92775462962962962</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>589000.00000000256</v>
+        <v>658000.00000000373</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>32519</v>
+        <v>26080</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>5</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>112</v>
       </c>
@@ -4302,23 +4302,23 @@
       </c>
       <c r="E69" s="7">
         <f t="shared" ca="1" si="28"/>
-        <v>0.9269560185185185</v>
+        <v>0.92775462962962962</v>
       </c>
       <c r="F69" s="7">
         <f ca="1">G68</f>
-        <v>0.9269560185185185</v>
+        <v>0.92775462962962962</v>
       </c>
       <c r="G69" s="7">
         <f ca="1" xml:space="preserve"> F69 + RANDBETWEEN(450, 750) / 86400</f>
-        <v>0.9330208333333333</v>
+        <v>0.93525462962962957</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>523999.99999999878</v>
+        <v>647999.99999999581</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>26311</v>
+        <v>32408</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>5</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>113</v>
       </c>
@@ -4348,23 +4348,23 @@
       </c>
       <c r="E70" s="7">
         <f t="shared" ca="1" si="28"/>
-        <v>0.9330208333333333</v>
+        <v>0.93525462962962957</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" ref="F70:F73" ca="1" si="29">G69</f>
-        <v>0.9330208333333333</v>
+        <v>0.93525462962962957</v>
       </c>
       <c r="G70" s="7">
         <f ca="1" xml:space="preserve"> F70 + RANDBETWEEN(200, 400) / 86400</f>
-        <v>0.9357523148148148</v>
+        <v>0.93891203703703696</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>236000.00000000172</v>
+        <v>315999.99999999825</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>29978</v>
+        <v>25959</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>5</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>114</v>
       </c>
@@ -4394,23 +4394,23 @@
       </c>
       <c r="E71" s="7">
         <f t="shared" ca="1" si="28"/>
-        <v>0.9357523148148148</v>
+        <v>0.93891203703703696</v>
       </c>
       <c r="F71" s="7">
         <f t="shared" ca="1" si="29"/>
-        <v>0.9357523148148148</v>
+        <v>0.93891203703703696</v>
       </c>
       <c r="G71" s="7">
         <f ca="1" xml:space="preserve"> F71 + RANDBETWEEN(200, 400) / 86400</f>
-        <v>0.9400115740740741</v>
+        <v>0.94206018518518508</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>368000.00000000314</v>
+        <v>271999.99999999773</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>31531</v>
+        <v>32781</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>5</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>115</v>
       </c>
@@ -4440,23 +4440,23 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" ca="1" si="28"/>
-        <v>0.9400115740740741</v>
+        <v>0.94206018518518508</v>
       </c>
       <c r="F72" s="7">
         <f t="shared" ca="1" si="29"/>
-        <v>0.9400115740740741</v>
+        <v>0.94206018518518508</v>
       </c>
       <c r="G72" s="7">
         <f ca="1" xml:space="preserve"> F72 + RANDBETWEEN(250, 450) / 86400</f>
-        <v>0.94511574074074078</v>
+        <v>0.94509259259259248</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>441000.0000000018</v>
+        <v>261999.99999999939</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>28031</v>
+        <v>32636</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>116</v>
       </c>
@@ -4486,23 +4486,23 @@
       </c>
       <c r="E73" s="7">
         <f t="shared" ca="1" si="28"/>
-        <v>0.94511574074074078</v>
+        <v>0.94509259259259248</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" ca="1" si="29"/>
-        <v>0.94511574074074078</v>
+        <v>0.94509259259259248</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" ca="1" si="19"/>
-        <v>0.94854166666666673</v>
+        <v>0.94770833333333326</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>296000.00000000151</v>
+        <v>226000.00000000335</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>28381</v>
+        <v>33297</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>5</v>
@@ -4532,21 +4532,21 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -4585,17 +4585,17 @@
       </c>
       <c r="E2">
         <f ca="1">(JobContextExecutions!I2) / 1000</f>
-        <v>94.11</v>
+        <v>89.906000000000006</v>
       </c>
       <c r="F2" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>QPVUGrRAJLuHYRWRWMWMVAZD</v>
+        <v>]SDOuPQuQNCENIKrH_DARUJY</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -4611,17 +4611,17 @@
       </c>
       <c r="E3">
         <f ca="1">(JobContextExecutions!I8) / 1000</f>
-        <v>38.198</v>
+        <v>28.068999999999999</v>
       </c>
       <c r="F3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>OKUWCXNuQCZaHXKII^EDAIoR</v>
+        <v>JG]KVUuOUQJxPtF]XDQSCkDm</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -4637,17 +4637,17 @@
       </c>
       <c r="E4">
         <f ca="1">(JobContextExecutions!I14) / 1000</f>
-        <v>21.667999999999999</v>
+        <v>31.463999999999999</v>
       </c>
       <c r="F4" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>HCPVXFDVFtL_KvUKIBYFHoTY</v>
+        <v>CjWWZSMVUbD^PxMGRAUONUBU</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4663,17 +4663,17 @@
       </c>
       <c r="E5">
         <f ca="1">(JobContextExecutions!I47) / 1000</f>
-        <v>119.367</v>
+        <v>117.277</v>
       </c>
       <c r="F5" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>oHPoIRCdZGACkJFzURncOqPV</v>
+        <v>AOYraGbUURETlHkGHZcvR]NN</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -4689,17 +4689,17 @@
       </c>
       <c r="E6">
         <f ca="1">(JobContextExecutions!I56) / 1000</f>
-        <v>20.47</v>
+        <v>21.896000000000001</v>
       </c>
       <c r="F6" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>DQuGOSCJBMwYs\RPgKcZKARB</v>
+        <v>NWNfSRRSUMoVEtCgEUoP^LOG</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -4715,17 +4715,17 @@
       </c>
       <c r="E7">
         <f ca="1">(JobContextExecutions!I65) / 1000</f>
-        <v>31.413</v>
+        <v>27.233000000000001</v>
       </c>
       <c r="F7" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>KNC`OZoIITVMEJZWlQZYZNop</v>
+        <v>PICmL^GOgHPKFJdMqnjrhUXV</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="E8">
         <f ca="1">(JobContextExecutions!I47) / 1000</f>
-        <v>119.367</v>
+        <v>117.277</v>
       </c>
       <c r="F8" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>W_GWJXZFPdBIEAeRCDzZEfCN</v>
+        <v>WGWaBMQzJ\T^lMZKnZTBQWIU</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -4767,17 +4767,17 @@
       </c>
       <c r="E9">
         <f ca="1">(JobContextExecutions!I56) / 1000</f>
-        <v>20.47</v>
+        <v>21.896000000000001</v>
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>aHMYHTQOIwBAMBTcJVZBXuIG</v>
+        <v>IQESOD]FBvzNOEsUGYZSNZhU</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -4793,17 +4793,17 @@
       </c>
       <c r="E10">
         <f ca="1">(JobContextExecutions!I65) / 1000</f>
-        <v>31.413</v>
+        <v>27.233000000000001</v>
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>qQuEzEEDUSRfZFJtGTBCSOLJ</v>
+        <v>VFUZVRQ^Hy]PxxEPDGtKSVKo</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -4819,17 +4819,17 @@
       </c>
       <c r="E11">
         <f ca="1">(JobContextExecutions!I20) / 1000</f>
-        <v>103.366</v>
+        <v>117.884</v>
       </c>
       <c r="F11" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>KPDFjTLrDZVYuEMqJPO^PBXR</v>
+        <v>VXzKLWXHAUU_iEMZRBHlVChI</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -4845,17 +4845,17 @@
       </c>
       <c r="E12">
         <f ca="1">(JobContextExecutions!I29) / 1000</f>
-        <v>26.042999999999999</v>
+        <v>23.885999999999999</v>
       </c>
       <c r="F12" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>Iq[TLWZqDVkRUPXYYNiIvXJL</v>
+        <v>BXSVUYjLZVWEVKJHCvULQqbO</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -4871,17 +4871,17 @@
       </c>
       <c r="E13">
         <f ca="1">(JobContextExecutions!I38) / 1000</f>
-        <v>30.847000000000001</v>
+        <v>36.517000000000003</v>
       </c>
       <c r="F13" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>Y\qqN_bDKSFEBrlX`EZUROdE</v>
+        <v>aGXInVLNRQJJC`jpCwCFFYSZ</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -4897,17 +4897,17 @@
       </c>
       <c r="E14">
         <f ca="1">(JobContextExecutions!I47) / 1000</f>
-        <v>119.367</v>
+        <v>117.277</v>
       </c>
       <c r="F14" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>ARDsjT_wPZVPkGWpGnQbPQFY</v>
+        <v>JJAIohemU^pBXTFfJPEXBX]i</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -4923,17 +4923,17 @@
       </c>
       <c r="E15">
         <f ca="1">(JobContextExecutions!I56) / 1000</f>
-        <v>20.47</v>
+        <v>21.896000000000001</v>
       </c>
       <c r="F15" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>BxbHTFcwYVnLECIUQRLiDUaU</v>
+        <v>QKpRLgOpFvBSW]BVBsSoYK]m</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -4949,17 +4949,17 @@
       </c>
       <c r="E16">
         <f ca="1">(JobContextExecutions!I65) / 1000</f>
-        <v>31.413</v>
+        <v>27.233000000000001</v>
       </c>
       <c r="F16" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>SIPHf`KR]jzFuuayc`IHwCVG</v>
+        <v>TJFGHmBZECCZCQRHBGSWDOCC</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -4975,17 +4975,17 @@
       </c>
       <c r="E17">
         <f ca="1">(JobContextExecutions!I50) / 1000</f>
-        <v>117.07599999999999</v>
+        <v>115.953</v>
       </c>
       <c r="F17" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>DxXHEWVU\MnJIEDm\LMPzLxS</v>
+        <v>viVkQo\VphQHCeAHupVJFCUC</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -5001,17 +5001,17 @@
       </c>
       <c r="E18">
         <f ca="1">(JobContextExecutions!I59) / 1000</f>
-        <v>28.736999999999998</v>
+        <v>22.231000000000002</v>
       </c>
       <c r="F18" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>_jTkAUWYgDUUoBFBKMfagXSL</v>
+        <v>JZIXVQSFEWCF]NUjYKMVPVEF</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -5027,11 +5027,11 @@
       </c>
       <c r="E19">
         <f ca="1">(JobContextExecutions!I68) / 1000</f>
-        <v>32.518999999999998</v>
+        <v>26.08</v>
       </c>
       <c r="F19" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">_xlfn.TEXTJOIN("",,CHAR(RANDBETWEEN(65,90+IF(_xlfn.RANDARRAY(24)&lt;0.5,32,0))))</f>
-        <v>tFZYyQJC]PXHSIcBOKIMXKdD</v>
+        <v>JMJFCHPFuFFJMBTIiIb`BKiv</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
